--- a/militants_droit_femmes.xlsx
+++ b/militants_droit_femmes.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/UNIL/Master/Neuchatel/S1/humanité numérique/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BDB9AC-F985-F747-8E99-5B338232C29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429CBDAE-B2C1-7348-9333-84EEFF3BB012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{887A95C4-D584-C147-B541-02BE4287EA9E}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{887A95C4-D584-C147-B541-02BE4287EA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Personne" sheetId="1" r:id="rId1"/>
     <sheet name="Formation" sheetId="2" r:id="rId2"/>
-    <sheet name="Métier" sheetId="6" r:id="rId3"/>
-    <sheet name="Pays" sheetId="5" r:id="rId4"/>
-    <sheet name="Organisation ou association" sheetId="3" r:id="rId5"/>
-    <sheet name="Voie d'expression" sheetId="4" r:id="rId6"/>
-    <sheet name="Métier exercé par la mère" sheetId="8" r:id="rId7"/>
-    <sheet name="Lien  Personne et Formation" sheetId="10" r:id="rId8"/>
-    <sheet name="Lien entre Personne et Métier" sheetId="11" r:id="rId9"/>
-    <sheet name="Métier exercé par le père" sheetId="7" r:id="rId10"/>
-    <sheet name="Lien entre Personne et Pays " sheetId="9" r:id="rId11"/>
+    <sheet name="Pays" sheetId="5" r:id="rId3"/>
+    <sheet name="Organisation ou association" sheetId="3" r:id="rId4"/>
+    <sheet name="Voie d'expression" sheetId="4" r:id="rId5"/>
+    <sheet name="Métier exercé par la mère" sheetId="8" r:id="rId6"/>
+    <sheet name="Métier exercé par le père" sheetId="7" r:id="rId7"/>
+    <sheet name="Lien entre Personne et Pays " sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>Nom</t>
   </si>
@@ -318,42 +315,6 @@
     <t>P4</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>Journaliste</t>
-  </si>
-  <si>
-    <t>Médecin psychiatre</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>Écrivain.e</t>
-  </si>
-  <si>
-    <t>Enseignant.e</t>
-  </si>
-  <si>
-    <t>Professeur de Philosophie</t>
-  </si>
-  <si>
-    <t>Ouvrier.e</t>
-  </si>
-  <si>
     <t>O1</t>
   </si>
   <si>
@@ -387,16 +348,7 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>Formation</t>
-  </si>
-  <si>
-    <t>Métier</t>
-  </si>
-  <si>
-    <t>M3, M4</t>
-  </si>
-  <si>
-    <t>M5, M4</t>
+    <t>Sciences sociales</t>
   </si>
 </sst>
 </file>
@@ -751,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEED1E5-6C48-9846-B6D5-8D57832F30EF}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +829,419 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AEE917-E558-3E4F-89F5-11BF051C52FC}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EB778B-7C0D-C947-8AF4-29DB88E3C18C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44198316-8352-B84D-85BD-D84167BD4150}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1922</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1982</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1925</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1888</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>1945</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8E1E6-B854-EB43-82B4-35A5AD94B465}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B50C46-A241-D548-B122-759BF389B8F2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACB03AE-49C6-4043-BA1F-349424C1F432}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -897,7 +1261,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -905,7 +1269,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -913,7 +1277,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -924,7 +1288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F076D71-4C42-AB4F-969A-9F4D768DB40E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -977,588 +1341,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AEE917-E558-3E4F-89F5-11BF051C52FC}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E95671-A729-C14A-97F9-2D6BAC46C21F}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EB778B-7C0D-C947-8AF4-29DB88E3C18C}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44198316-8352-B84D-85BD-D84167BD4150}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1922</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>1982</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>1925</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>1888</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6">
-        <v>1945</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D8E1E6-B854-EB43-82B4-35A5AD94B465}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B50C46-A241-D548-B122-759BF389B8F2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A0A7BA-4416-8641-9098-BC9BE261416F}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25E025B-C93B-1B4A-972B-09AA086B54D3}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>